--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studio\personal\projects\spreadsheets\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0C8235-E6F3-46DC-9929-2AE73A8DA74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682CF33-E406-4117-BD90-E700B9BD92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="600" windowWidth="16584" windowHeight="12360" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
+    <workbookView xWindow="3240" yWindow="600" windowWidth="16584" windowHeight="12360" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
   </bookViews>
   <sheets>
     <sheet name="user guide" sheetId="8" r:id="rId1"/>
@@ -973,16 +973,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -991,9 +985,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -1001,6 +992,15 @@
       <alignment vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2143,13 +2143,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2A1D12-C6DC-4EBF-908C-FE86E46B480E}">
   <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="4.44140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="5.21875" style="18" customWidth="1"/>
     <col min="3" max="3" width="13" style="18" customWidth="1"/>
     <col min="4" max="4" width="5.21875" style="18" customWidth="1"/>
@@ -2267,7 +2267,7 @@
   </sheetPr>
   <dimension ref="A2:BP40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C6"/>
     </sheetView>
   </sheetViews>
@@ -2290,11 +2290,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="49">
         <v>45689</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -2302,11 +2302,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="50">
         <v>45961</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="34" cm="1">
@@ -2448,102 +2448,102 @@
       <c r="BP4" s="34"/>
     </row>
     <row r="5" spans="1:68" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
     </row>
     <row r="6" spans="1:68" s="35" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -2786,7 +2786,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
         <v>55</v>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="26">
         <v>1</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="26" t="s">
         <v>21</v>
       </c>
@@ -3585,7 +3585,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="26" t="s">
         <v>22</v>
       </c>
@@ -3845,7 +3845,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="26">
         <v>2</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
@@ -4394,7 +4394,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="26" t="s">
         <v>25</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="26" t="s">
         <v>26</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="26" t="s">
         <v>27</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="26" t="s">
         <v>28</v>
       </c>
@@ -5699,7 +5699,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="26" t="s">
         <v>29</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
@@ -6221,7 +6221,7 @@
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="26" t="s">
         <v>31</v>
       </c>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="26" t="s">
         <v>32</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="26">
         <v>3</v>
       </c>
@@ -7004,7 +7004,7 @@
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="26" t="s">
         <v>34</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="26" t="s">
         <v>35</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="26" t="s">
         <v>36</v>
       </c>
@@ -7784,7 +7784,7 @@
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="26">
         <v>4</v>
       </c>
@@ -8045,7 +8045,7 @@
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="26" t="s">
         <v>37</v>
       </c>
@@ -8314,7 +8314,7 @@
       </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="26" t="s">
         <v>38</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="26" t="s">
         <v>40</v>
       </c>
@@ -9135,7 +9135,7 @@
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="26" t="s">
         <v>41</v>
       </c>
@@ -9396,7 +9396,7 @@
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="26" t="s">
         <v>42</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
         <v>43</v>
@@ -9910,18 +9910,18 @@
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="26">
         <v>5</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="48">
         <f>J34-I34</f>
         <v>48</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="26"/>
       <c r="G34" s="26"/>
       <c r="H34" s="28"/>
@@ -10165,18 +10165,18 @@
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="26">
         <v>6</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="48">
         <f t="shared" ref="D35:D37" si="19">J35-I35</f>
         <v>21</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="28"/>
@@ -10420,18 +10420,18 @@
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="26">
         <v>7</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="48">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="48"/>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
       <c r="H36" s="28"/>
@@ -10675,18 +10675,18 @@
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="26">
         <v>8</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="48">
         <f t="shared" si="19"/>
         <v>48</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="28"/>
@@ -10930,7 +10930,7 @@
       </c>
     </row>
     <row r="38" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="26"/>
       <c r="C38" s="27" t="s">
         <v>57</v>
@@ -11176,7 +11176,7 @@
       </c>
     </row>
     <row r="39" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27" t="s">
         <v>58</v>
@@ -11431,7 +11431,7 @@
       </c>
     </row>
     <row r="40" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="50"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
         <v>56</v>
@@ -11678,6 +11678,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K5:BP5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
@@ -11686,12 +11692,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="K5:BP5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J40">
@@ -11927,11 +11927,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="49">
         <v>45689</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.3">
@@ -11939,11 +11939,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="50">
         <v>45961</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K4" s="8" cm="1">
@@ -12085,102 +12085,102 @@
       <c r="BP4" s="8"/>
     </row>
     <row r="5" spans="1:68" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
     </row>
     <row r="6" spans="1:68" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -12423,7 +12423,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>63</v>
@@ -12691,7 +12691,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -12980,7 +12980,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -13249,7 +13249,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
@@ -13771,7 +13771,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -14032,7 +14032,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
         <v>69</v>
@@ -14842,7 +14842,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -15097,7 +15097,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="12">
         <v>4</v>
       </c>
@@ -15352,7 +15352,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="12">
         <v>5</v>
       </c>
@@ -15607,7 +15607,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="12">
         <v>6</v>
       </c>
@@ -16607,11 +16607,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:BP5"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -16621,6 +16616,11 @@
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:BP5"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J22">

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132A143-1E23-41F6-A0BD-231B4B75A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86540085-AC41-417C-8286-DD4959AC1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
   </bookViews>
   <sheets>
     <sheet name="user guide" sheetId="8" r:id="rId1"/>
@@ -970,10 +970,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -982,6 +988,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -989,15 +998,6 @@
       <alignment vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2261,7 +2261,7 @@
   </sheetPr>
   <dimension ref="A2:BP40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
@@ -2284,11 +2284,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="41">
         <v>45689</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
@@ -2296,11 +2296,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="42">
         <v>45961</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="33" cm="1">
@@ -2442,102 +2442,102 @@
       <c r="BP4" s="33"/>
     </row>
     <row r="5" spans="1:68" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
     </row>
     <row r="6" spans="1:68" s="34" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26" t="s">
         <v>55</v>
@@ -3051,7 +3051,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="25">
         <v>1</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="25">
         <v>2</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +4653,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="25" t="s">
         <v>27</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A20" s="46"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A22" s="46"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="25">
         <v>3</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A23" s="46"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="25" t="s">
         <v>34</v>
       </c>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A25" s="46"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A26" s="46"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="25">
         <v>4</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="25" t="s">
         <v>37</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="25" t="s">
         <v>38</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A29" s="46"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
@@ -8853,7 +8853,7 @@
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="25" t="s">
         <v>40</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="25" t="s">
         <v>41</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="25" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9654,7 @@
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A33" s="46"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26" t="s">
         <v>43</v>
@@ -9907,18 +9907,18 @@
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A34" s="46"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="25">
         <v>5</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="50">
         <f>J34-I34</f>
         <v>48</v>
       </c>
-      <c r="E34" s="47"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="27" t="str">
@@ -10165,18 +10165,18 @@
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="25">
         <v>6</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="50">
         <f t="shared" ref="D35:D37" si="15">J35-I35</f>
         <v>21</v>
       </c>
-      <c r="E35" s="47"/>
+      <c r="E35" s="50"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="27" t="str">
@@ -10423,18 +10423,18 @@
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A36" s="46"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="25">
         <v>7</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="50">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="27" t="str">
@@ -10681,18 +10681,18 @@
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A37" s="46"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="25">
         <v>8</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="50">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="50"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="str">
@@ -10939,7 +10939,7 @@
       </c>
     </row>
     <row r="38" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="46"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26" t="s">
         <v>57</v>
@@ -11185,7 +11185,7 @@
       </c>
     </row>
     <row r="39" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26" t="s">
         <v>58</v>
@@ -11440,7 +11440,7 @@
       </c>
     </row>
     <row r="40" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26" t="s">
         <v>56</v>
@@ -11687,12 +11687,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="K5:BP5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
@@ -11701,6 +11695,12 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K5:BP5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J40">
@@ -11914,8 +11914,8 @@
   </sheetPr>
   <dimension ref="A2:BP22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11936,11 +11936,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="41">
         <v>45689</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
@@ -11948,11 +11948,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="42">
         <v>45961</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="8" cm="1">
@@ -12094,102 +12094,102 @@
       <c r="BP4" s="8"/>
     </row>
     <row r="5" spans="1:68" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="41"/>
-      <c r="BK5" s="41"/>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41"/>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="41"/>
-      <c r="BP5" s="41"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
     </row>
     <row r="6" spans="1:68" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -12432,7 +12432,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A7" s="46"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>63</v>
@@ -12709,7 +12709,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -12717,26 +12717,32 @@
         <v>62</v>
       </c>
       <c r="D8" s="12">
-        <f>SUM(D9:D12)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12">
-        <f>SUM(F9:F12)</f>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H22" si="2">IF((LEN(B8) - LEN(SUBSTITUTE(B8, ".", ""))) = 2,  IF(ISBLANK(E8),"",IF(ISBLANK(G8),"",IF(E8=0,1,-(1-G8/E8)))), IF(ISBLANK(D8),"",IF(ISBLANK(F8),"",IF(D8=0,1,-(1-F8/D8)))))</f>
-        <v>0.53333333333333344</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="14">
-        <f>J7</f>
+        <f>IF(
+   ISNUMBER(FIND(".", B8)),
+   IF(
+   RIGHT(B8, 1) = "1",
+   I7,
+   J7
+   ),
+    J7
+)</f>
         <v>45691</v>
       </c>
       <c r="J8" s="16">
         <f>IF((LEN(B8) - LEN(SUBSTITUTE(B8, ".", ""))) = 2, WORKDAY(I8, IF(ISBLANK(G8),E8,G8)), WORKDAY(I8, IF(ISBLANK(F8),D8,F8)))</f>
-        <v>45722</v>
+        <v>45699</v>
       </c>
       <c r="K8" s="10" t="str">
         <f t="shared" ref="K8:Z14" si="3">_xlfn.LET(
@@ -12757,19 +12763,19 @@
       </c>
       <c r="M8" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="P8" s="10">
-        <f t="shared" si="1"/>
-        <v>-1</v>
+      <c r="N8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="Q8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -12999,7 +13005,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -13019,44 +13025,52 @@
         <v>1</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:I22" si="6">J8</f>
-        <v>45722</v>
+        <f t="shared" ref="I9:I22" si="6">IF(
+   ISNUMBER(FIND(".", B9)),
+   IF(
+   RIGHT(B9, 1) = "1",
+   I8,
+   J8
+   ),
+    J8
+)</f>
+        <v>45691</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" ref="J9:J22" si="7">IF((LEN(B9) - LEN(SUBSTITUTE(B9, ".", ""))) = 2, WORKDAY(I9, IF(ISBLANK(G9),E9,G9)), WORKDAY(I9, IF(ISBLANK(F9),D9,F9)))</f>
-        <v>45736</v>
+        <v>45705</v>
       </c>
       <c r="K9" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M9" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N9" s="10" t="str">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="O9" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Q9" s="10">
+        <v/>
+      </c>
+      <c r="Q9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="R9" s="10">
+        <v/>
+      </c>
+      <c r="R9" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13269,7 +13283,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
@@ -13292,11 +13306,11 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="6"/>
-        <v>45736</v>
+        <v>45705</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="7"/>
-        <v>45755</v>
+        <v>45722</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13310,37 +13324,37 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O10" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="O10" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P10" s="10" t="str">
+        <v>2</v>
+      </c>
+      <c r="P10" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="Q10" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="S10" s="10">
+        <v/>
+      </c>
+      <c r="S10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T10" s="10">
+        <v/>
+      </c>
+      <c r="T10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="U10" s="10">
+        <v/>
+      </c>
+      <c r="U10" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13532,7 +13546,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
@@ -13553,11 +13567,11 @@
       </c>
       <c r="I11" s="14">
         <f t="shared" si="6"/>
-        <v>45755</v>
+        <v>45705</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="7"/>
-        <v>45762</v>
+        <v>45712</v>
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13571,13 +13585,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O11" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="O11" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="P11" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13599,13 +13613,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="V11" s="10">
+        <v/>
+      </c>
+      <c r="V11" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="W11" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13793,7 +13807,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -13814,11 +13828,11 @@
       </c>
       <c r="I12" s="14">
         <f t="shared" si="6"/>
-        <v>45762</v>
+        <v>45712</v>
       </c>
       <c r="J12" s="16">
         <f t="shared" si="7"/>
-        <v>45772</v>
+        <v>45722</v>
       </c>
       <c r="K12" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13836,13 +13850,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P12" s="10" t="str">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="Q12" s="10" t="str">
         <f t="shared" si="3"/>
@@ -13864,13 +13878,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="W12" s="10">
+        <v/>
+      </c>
+      <c r="W12" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="X12" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14054,7 +14068,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -14077,11 +14091,11 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" si="6"/>
-        <v>45772</v>
+        <v>45722</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" si="7"/>
-        <v>45775</v>
+        <v>45723</v>
       </c>
       <c r="K13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14103,9 +14117,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P13" s="10" t="str">
+      <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14131,13 +14145,13 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="10">
+        <v/>
+      </c>
+      <c r="X13" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v/>
       </c>
       <c r="Y13" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14317,7 +14331,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -14338,11 +14352,11 @@
       </c>
       <c r="I14" s="14">
         <f t="shared" si="6"/>
-        <v>45775</v>
+        <v>45722</v>
       </c>
       <c r="J14" s="16">
         <f t="shared" si="7"/>
-        <v>45776</v>
+        <v>45723</v>
       </c>
       <c r="K14" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14364,9 +14378,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P14" s="10" t="str">
+      <c r="P14" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Q14" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14396,9 +14410,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="X14" s="10">
+      <c r="X14" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Y14" s="10" t="str">
         <f t="shared" si="3"/>
@@ -14578,7 +14592,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
         <v>69</v>
@@ -14593,11 +14607,11 @@
       </c>
       <c r="I15" s="14">
         <f t="shared" si="6"/>
-        <v>45776</v>
+        <v>45723</v>
       </c>
       <c r="J15" s="16">
         <f t="shared" si="7"/>
-        <v>45776</v>
+        <v>45723</v>
       </c>
       <c r="K15" s="10" t="str">
         <f t="shared" ref="K15:Z22" si="9">_xlfn.LET(
@@ -14628,9 +14642,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P15" s="10" t="str">
+      <c r="P15" s="10">
         <f t="shared" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Q15" s="10" t="str">
         <f t="shared" si="9"/>
@@ -14660,9 +14674,9 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="Y15" s="10" t="str">
         <f t="shared" si="9"/>
@@ -14869,7 +14883,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -14890,11 +14904,11 @@
       </c>
       <c r="I16" s="14">
         <f t="shared" si="6"/>
-        <v>45776</v>
+        <v>45723</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="7"/>
-        <v>45783</v>
+        <v>45730</v>
       </c>
       <c r="K16" s="10" t="str">
         <f t="shared" ref="K16:AP16" si="13">_xlfn.LET(
@@ -14925,13 +14939,13 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P16" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q16" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+      <c r="P16" s="10">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="R16" s="10" t="str">
         <f t="shared" si="13"/>
@@ -14957,13 +14971,13 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="X16" s="10">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="10">
-        <f t="shared" si="13"/>
-        <v>1</v>
+      <c r="X16" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Y16" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="Z16" s="10" t="str">
         <f t="shared" si="13"/>
@@ -15139,7 +15153,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="12">
         <v>4</v>
       </c>
@@ -15158,11 +15172,11 @@
       </c>
       <c r="I17" s="14">
         <f t="shared" si="6"/>
-        <v>45783</v>
+        <v>45730</v>
       </c>
       <c r="J17" s="16">
         <f t="shared" si="7"/>
-        <v>45811</v>
+        <v>45758</v>
       </c>
       <c r="K17" s="10" t="str">
         <f t="shared" si="9"/>
@@ -15188,25 +15202,25 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Q17" s="10" t="str">
+      <c r="Q17" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R17" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="S17" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T17" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="U17" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
         <f t="shared" si="9"/>
-        <v/>
+        <v>-1</v>
       </c>
       <c r="V17" s="10" t="str">
         <f t="shared" si="9"/>
@@ -15220,25 +15234,25 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="10">
+        <v/>
+      </c>
+      <c r="Z17" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AA17" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AB17" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AC17" s="10">
-        <f t="shared" si="10"/>
-        <v>-1</v>
+        <v/>
+      </c>
+      <c r="AA17" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AB17" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC17" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AD17" s="10" t="str">
         <f t="shared" si="10"/>
@@ -15398,7 +15412,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="12">
         <v>5</v>
       </c>
@@ -15417,11 +15431,11 @@
       </c>
       <c r="I18" s="14">
         <f t="shared" si="6"/>
-        <v>45811</v>
+        <v>45758</v>
       </c>
       <c r="J18" s="16">
         <f t="shared" si="7"/>
-        <v>45859</v>
+        <v>45806</v>
       </c>
       <c r="K18" s="10" t="str">
         <f t="shared" si="9"/>
@@ -15463,69 +15477,69 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U18" s="10" t="str">
+      <c r="U18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="V18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="W18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="X18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="X18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Y18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Z18" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AA18" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB18" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC18" s="10">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AD18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AF18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AG18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AH18" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AI18" s="10">
+      <c r="AA18" s="10">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="AJ18" s="10">
+      <c r="AB18" s="10">
         <f t="shared" si="10"/>
         <v>-1</v>
+      </c>
+      <c r="AC18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AE18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AH18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AI18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ18" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="AK18" s="10" t="str">
         <f t="shared" si="10"/>
@@ -15657,7 +15671,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="12">
         <v>6</v>
       </c>
@@ -15676,11 +15690,11 @@
       </c>
       <c r="I19" s="14">
         <f t="shared" si="6"/>
-        <v>45859</v>
+        <v>45806</v>
       </c>
       <c r="J19" s="16">
         <f t="shared" si="7"/>
-        <v>45875</v>
+        <v>45824</v>
       </c>
       <c r="K19" s="10" t="str">
         <f t="shared" si="9"/>
@@ -15750,21 +15764,21 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AB19" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AC19" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD19" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AE19" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AB19" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10">
+        <f t="shared" si="10"/>
+        <v>-1</v>
       </c>
       <c r="AF19" s="10" t="str">
         <f t="shared" si="10"/>
@@ -15782,17 +15796,17 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AJ19" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AK19" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AL19" s="10">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+      <c r="AJ19" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AK19" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AL19" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="AM19" s="10" t="str">
         <f t="shared" si="11"/>
@@ -15932,11 +15946,11 @@
       </c>
       <c r="I20" s="14">
         <f t="shared" si="6"/>
-        <v>45875</v>
+        <v>45824</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" si="7"/>
-        <v>45876</v>
+        <v>45825</v>
       </c>
       <c r="K20" s="10" t="str">
         <f t="shared" ref="K20:AP20" si="14">_xlfn.LET(
@@ -16027,9 +16041,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AE20" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+      <c r="AE20" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AF20" s="10" t="str">
         <f t="shared" si="14"/>
@@ -16055,9 +16069,9 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AL20" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
+      <c r="AL20" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v/>
       </c>
       <c r="AM20" s="10" t="str">
         <f t="shared" si="14"/>
@@ -16202,11 +16216,11 @@
       </c>
       <c r="I21" s="14">
         <f t="shared" si="6"/>
-        <v>45876</v>
+        <v>45825</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="7"/>
-        <v>45880</v>
+        <v>45827</v>
       </c>
       <c r="K21" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16288,9 +16302,9 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AE21" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AE21" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AF21" s="10" t="str">
         <f t="shared" si="10"/>
@@ -16316,13 +16330,13 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AL21" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM21" s="10">
-        <f t="shared" si="11"/>
-        <v>-1</v>
+      <c r="AL21" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AM21" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="AN21" s="10" t="str">
         <f t="shared" si="11"/>
@@ -16463,11 +16477,11 @@
       </c>
       <c r="I22" s="14">
         <f t="shared" si="6"/>
-        <v>45880</v>
+        <v>45827</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="7"/>
-        <v>45883</v>
+        <v>45832</v>
       </c>
       <c r="K22" s="10" t="str">
         <f t="shared" si="9"/>
@@ -16549,13 +16563,13 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AE22" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AF22" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+      <c r="AE22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
+        <f t="shared" si="10"/>
+        <v>-1</v>
       </c>
       <c r="AG22" s="10" t="str">
         <f t="shared" si="10"/>
@@ -16581,9 +16595,9 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AM22" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+      <c r="AM22" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="AN22" s="10" t="str">
         <f t="shared" si="11"/>
@@ -16700,16 +16714,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:BP5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A19"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:BP5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J22">

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86540085-AC41-417C-8286-DD4959AC1C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80462170-9E5E-4080-A5D3-2DF709B8C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{DA0CE161-BB7D-4A4B-BBD7-0003F46AF39A}"/>
   </bookViews>
@@ -970,16 +970,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -988,9 +982,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -998,6 +989,15 @@
       <alignment vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2284,11 +2284,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="48">
         <v>45689</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
@@ -2296,11 +2296,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="49">
         <v>45961</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="33" cm="1">
@@ -2442,102 +2442,102 @@
       <c r="BP4" s="33"/>
     </row>
     <row r="5" spans="1:68" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
     </row>
     <row r="6" spans="1:68" s="34" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -2780,7 +2780,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26" t="s">
         <v>55</v>
@@ -3051,7 +3051,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="25">
         <v>1</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="25" t="s">
         <v>21</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="25" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="25">
         <v>2</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
@@ -4653,7 +4653,7 @@
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="25" t="s">
         <v>25</v>
       </c>
@@ -4913,7 +4913,7 @@
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="25" t="s">
         <v>27</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
@@ -5957,7 +5957,7 @@
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
@@ -6479,7 +6479,7 @@
       </c>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
@@ -6740,7 +6740,7 @@
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="25">
         <v>3</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="25" t="s">
         <v>34</v>
       </c>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A26" s="49"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="25">
         <v>4</v>
       </c>
@@ -8042,7 +8042,7 @@
       </c>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="25" t="s">
         <v>37</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="25" t="s">
         <v>38</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
@@ -8853,7 +8853,7 @@
       </c>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="25" t="s">
         <v>40</v>
       </c>
@@ -9132,7 +9132,7 @@
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="25" t="s">
         <v>41</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="25" t="s">
         <v>42</v>
       </c>
@@ -9654,7 +9654,7 @@
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26" t="s">
         <v>43</v>
@@ -9907,18 +9907,18 @@
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="25">
         <v>5</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="47">
         <f>J34-I34</f>
         <v>48</v>
       </c>
-      <c r="E34" s="50"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="27" t="str">
@@ -10165,18 +10165,18 @@
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="25">
         <v>6</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="47">
         <f t="shared" ref="D35:D37" si="15">J35-I35</f>
         <v>21</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="27" t="str">
@@ -10423,18 +10423,18 @@
       </c>
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="25">
         <v>7</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="47">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="E36" s="50"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="27" t="str">
@@ -10681,18 +10681,18 @@
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="25">
         <v>8</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="47">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="47"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="str">
@@ -10939,7 +10939,7 @@
       </c>
     </row>
     <row r="38" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26" t="s">
         <v>57</v>
@@ -11185,7 +11185,7 @@
       </c>
     </row>
     <row r="39" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26" t="s">
         <v>58</v>
@@ -11440,7 +11440,7 @@
       </c>
     </row>
     <row r="40" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26" t="s">
         <v>56</v>
@@ -11687,6 +11687,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K5:BP5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:G6"/>
@@ -11695,12 +11701,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="K5:BP5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J40">
@@ -11915,7 +11915,7 @@
   <dimension ref="A2:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11936,11 +11936,11 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="48">
         <v>45689</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.35">
@@ -11948,11 +11948,11 @@
       <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="49">
         <v>45961</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:68" ht="5.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K4" s="8" cm="1">
@@ -12094,102 +12094,102 @@
       <c r="BP4" s="8"/>
     </row>
     <row r="5" spans="1:68" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44"/>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44"/>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="44"/>
-      <c r="AO5" s="44"/>
-      <c r="AP5" s="44"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="44"/>
-      <c r="AS5" s="44"/>
-      <c r="AT5" s="44"/>
-      <c r="AU5" s="44"/>
-      <c r="AV5" s="44"/>
-      <c r="AW5" s="44"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="44"/>
-      <c r="BB5" s="44"/>
-      <c r="BC5" s="44"/>
-      <c r="BD5" s="44"/>
-      <c r="BE5" s="44"/>
-      <c r="BF5" s="44"/>
-      <c r="BG5" s="44"/>
-      <c r="BH5" s="44"/>
-      <c r="BI5" s="44"/>
-      <c r="BJ5" s="44"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="44"/>
-      <c r="BP5" s="44"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41"/>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41"/>
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="41"/>
+      <c r="BP5" s="41"/>
     </row>
     <row r="6" spans="1:68" s="9" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="1" t="str">
         <f>UPPER(IF(ISBLANK(K4), "", _xlfn.LET(
     _xlpm.date_of_previous_week, DATE(YEAR(D2),1,1) - WEEKDAY(DATE(YEAR(D2),1,1)) + 7*J4,
@@ -12432,7 +12432,7 @@
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12"/>
       <c r="C7" s="15" t="s">
         <v>63</v>
@@ -12459,28 +12459,36 @@
       </c>
       <c r="K7" s="10">
         <f>_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D7), $E7, $D7),
-        _xlpm.task_level, IF(ISBLANK($B7),0,LEN($B7)-LEN(SUBSTITUTE($B7,".",""))+1),
-        _xlpm.task_ongoing, AND(K$4&gt;=_xlfn.ISOWEEKNUM($I7), K$4&lt;=_xlfn.ISOWEEKNUM($J7)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I7)),K$4&gt;_xlfn.ISOWEEKNUM($I7+_xlpm.days_expected), K$4&lt;=_xlfn.ISOWEEKNUM($J7)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+    _xlpm.days_expected, IF(ISBLANK($D7), $E7, $D7),
+    _xlpm.task_level, IF(ISBLANK($B7), 0, LEN($B7) - LEN(SUBSTITUTE($B7, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(K$4 &gt;= _xlfn.ISOWEEKNUM($I7), K$4 &lt;= _xlfn.ISOWEEKNUM($J7)),
+    _xlpm.workday_end_date, WORKDAY($I7, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I7)), K$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), K$4 &lt;= _xlfn.ISOWEEKNUM($J7)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v>0</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:BP8" si="1">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D7), $E7, $D7),
-        _xlpm.task_level, IF(ISBLANK($B7),0,LEN($B7)-LEN(SUBSTITUTE($B7,".",""))+1),
-        _xlpm.task_ongoing, AND(L$4&gt;=_xlfn.ISOWEEKNUM($I7), L$4&lt;=_xlfn.ISOWEEKNUM($J7)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I7)),L$4&gt;_xlfn.ISOWEEKNUM($I7+_xlpm.days_expected), L$4&lt;=_xlfn.ISOWEEKNUM($J7)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" ref="L7:BP11" si="1">_xlfn.LET(
+    _xlpm.days_expected, IF(ISBLANK($D7), $E7, $D7),
+    _xlpm.task_level, IF(ISBLANK($B7), 0, LEN($B7) - LEN(SUBSTITUTE($B7, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(L$4 &gt;= _xlfn.ISOWEEKNUM($I7), L$4 &lt;= _xlfn.ISOWEEKNUM($J7)),
+    _xlpm.workday_end_date, WORKDAY($I7, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I7)), L$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), L$4 &lt;= _xlfn.ISOWEEKNUM($J7)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v>0</v>
       </c>
       <c r="M7" s="10" t="str">
@@ -12709,7 +12717,7 @@
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -12745,16 +12753,20 @@
         <v>45699</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f t="shared" ref="K8:Z14" si="3">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D8), $E8, $D8),
-        _xlpm.task_level, IF(ISBLANK($B8),0,LEN($B8)-LEN(SUBSTITUTE($B8,".",""))+1),
-        _xlpm.task_ongoing, AND(K$4&gt;=_xlfn.ISOWEEKNUM($I8), K$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I8)),K$4&gt;_xlfn.ISOWEEKNUM($I8+_xlpm.days_expected), K$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" ref="K8:Z22" si="3">_xlfn.LET(
+    _xlpm.days_expected, IF(ISBLANK($D8), $E8, $D8),
+    _xlpm.task_level, IF(ISBLANK($B8), 0, LEN($B8) - LEN(SUBSTITUTE($B8, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(K$4 &gt;= _xlfn.ISOWEEKNUM($I8), K$4 &lt;= _xlfn.ISOWEEKNUM($J8)),
+    _xlpm.workday_end_date, WORKDAY($I8, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I8)), K$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), K$4 &lt;= _xlfn.ISOWEEKNUM($J8)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v/>
       </c>
       <c r="L8" s="10">
@@ -12866,146 +12878,128 @@
         <v/>
       </c>
       <c r="AM8" s="10" t="str">
-        <f t="shared" ref="AM8:BB19" si="4">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D8), $E8, $D8),
-        _xlpm.task_level, IF(ISBLANK($B8),0,LEN($B8)-LEN(SUBSTITUTE($B8,".",""))+1),
-        _xlpm.task_ongoing, AND(AM$4&gt;=_xlfn.ISOWEEKNUM($I8), AM$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I8)),AM$4&gt;_xlfn.ISOWEEKNUM($I8+_xlpm.days_expected), AM$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AN8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AO8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AQ8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AR8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AS8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB8" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC8" s="10" t="str">
-        <f t="shared" ref="BC8:BP14" si="5">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D8), $E8, $D8),
-        _xlpm.task_level, IF(ISBLANK($B8),0,LEN($B8)-LEN(SUBSTITUTE($B8,".",""))+1),
-        _xlpm.task_ongoing, AND(BC$4&gt;=_xlfn.ISOWEEKNUM($I8), BC$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I8)),BC$4&gt;_xlfn.ISOWEEKNUM($I8+_xlpm.days_expected), BC$4&lt;=_xlfn.ISOWEEKNUM($J8)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BP8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
@@ -13025,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:I22" si="6">IF(
+        <f t="shared" ref="I9:I22" si="4">IF(
    ISNUMBER(FIND(".", B9)),
    IF(
    RIGHT(B9, 1) = "1",
@@ -13037,7 +13031,7 @@
         <v>45691</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" ref="J9:J22" si="7">IF((LEN(B9) - LEN(SUBSTITUTE(B9, ".", ""))) = 2, WORKDAY(I9, IF(ISBLANK(G9),E9,G9)), WORKDAY(I9, IF(ISBLANK(F9),D9,F9)))</f>
+        <f t="shared" ref="J9:J22" si="5">IF((LEN(B9) - LEN(SUBSTITUTE(B9, ".", ""))) = 2, WORKDAY(I9, IF(ISBLANK(G9),E9,G9)), WORKDAY(I9, IF(ISBLANK(F9),D9,F9)))</f>
         <v>45705</v>
       </c>
       <c r="K9" s="10" t="str">
@@ -13045,245 +13039,236 @@
         <v/>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="M9" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
       <c r="O9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA9" s="10" t="str">
-        <f t="shared" ref="AA9:AP14" si="8">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D9), $E9, $D9),
-        _xlpm.task_level, IF(ISBLANK($B9),0,LEN($B9)-LEN(SUBSTITUTE($B9,".",""))+1),
-        _xlpm.task_ongoing, AND(AA$4&gt;=_xlfn.ISOWEEKNUM($I9), AA$4&lt;=_xlfn.ISOWEEKNUM($J9)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I9)),AA$4&gt;_xlfn.ISOWEEKNUM($I9+_xlpm.days_expected), AA$4&lt;=_xlfn.ISOWEEKNUM($J9)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AG9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AH9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AM9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AN9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AO9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP9" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AQ9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AR9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AS9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB9" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BP9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
@@ -13305,11 +13290,11 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45705</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45722</v>
       </c>
       <c r="K10" s="10" t="str">
@@ -13317,236 +13302,236 @@
         <v/>
       </c>
       <c r="L10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O10" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="P10" s="10">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AG10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AH10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AM10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AN10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AO10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AP10" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AQ10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AR10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AS10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AT10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AU10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AV10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AW10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AX10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AY10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AZ10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BA10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BB10" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BC10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BD10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BE10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BF10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BG10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BH10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BI10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BJ10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BK10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BL10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BM10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BN10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BO10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="BP10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
@@ -13566,11 +13551,11 @@
         <v>-0.5</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45705</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45712</v>
       </c>
       <c r="K11" s="10" t="str">
@@ -13578,236 +13563,262 @@
         <v/>
       </c>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="P11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="R11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="T11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="U11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="V11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="X11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Y11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Z11" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AA11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AC11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AD11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AE11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AF11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AG11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AH11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AI11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AJ11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AL11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AM11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AM11:BB22" si="6">_xlfn.LET(
+    _xlpm.days_expected, IF(ISBLANK($D11), $E11, $D11),
+    _xlpm.task_level, IF(ISBLANK($B11), 0, LEN($B11) - LEN(SUBSTITUTE($B11, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(AM$4 &gt;= _xlfn.ISOWEEKNUM($I11), AM$4 &lt;= _xlfn.ISOWEEKNUM($J11)),
+    _xlpm.workday_end_date, WORKDAY($I11, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I11)), AM$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), AM$4 &lt;= _xlfn.ISOWEEKNUM($J11)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v/>
       </c>
       <c r="AN11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AO11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AP11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AQ11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB11" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="BC11:BP22" si="7">_xlfn.LET(
+    _xlpm.days_expected, IF(ISBLANK($D11), $E11, $D11),
+    _xlpm.task_level, IF(ISBLANK($B11), 0, LEN($B11) - LEN(SUBSTITUTE($B11, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(BC$4 &gt;= _xlfn.ISOWEEKNUM($I11), BC$4 &lt;= _xlfn.ISOWEEKNUM($J11)),
+    _xlpm.workday_end_date, WORKDAY($I11, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I11)), BC$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), BC$4 &lt;= _xlfn.ISOWEEKNUM($J11)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v/>
       </c>
       <c r="BD11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP11" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
@@ -13827,11 +13838,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45712</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45722</v>
       </c>
       <c r="K12" s="10" t="str">
@@ -13899,7 +13910,20 @@
         <v/>
       </c>
       <c r="AA12" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AA12:AP22" si="8">_xlfn.LET(
+    _xlpm.days_expected, IF(ISBLANK($D12), $E12, $D12),
+    _xlpm.task_level, IF(ISBLANK($B12), 0, LEN($B12) - LEN(SUBSTITUTE($B12, ".", "")) + 1),
+    _xlpm.task_ongoing, AND(AA$4 &gt;= _xlfn.ISOWEEKNUM($I12), AA$4 &lt;= _xlfn.ISOWEEKNUM($J12)),
+    _xlpm.workday_end_date, WORKDAY($I12, _xlpm.days_expected),
+    _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I12)), AA$4 &gt; _xlfn.ISOWEEKNUM(_xlpm.workday_end_date), AA$4 &lt;= _xlfn.ISOWEEKNUM($J12)),
+    IF(OR(_xlpm.task_ongoing_and_overdue, AND(_xlpm.task_ongoing, _xlpm.days_expected = 0, NOT(_xlpm.task_level = 0))),
+        -1,
+        IF(_xlpm.task_ongoing,
+            _xlpm.task_level,
+            ""
+        )
+    )
+)</f>
         <v/>
       </c>
       <c r="AB12" s="10" t="str">
@@ -13963,112 +13987,112 @@
         <v/>
       </c>
       <c r="AQ12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB12" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP12" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="12">
         <v>2</v>
       </c>
@@ -14090,11 +14114,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45722</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45723</v>
       </c>
       <c r="K13" s="10" t="str">
@@ -14226,112 +14250,112 @@
         <v/>
       </c>
       <c r="AQ13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB13" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP13" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -14351,11 +14375,11 @@
         <v>1</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45722</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45723</v>
       </c>
       <c r="K14" s="10" t="str">
@@ -14487,112 +14511,112 @@
         <v/>
       </c>
       <c r="AQ14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB14" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP14" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="12"/>
       <c r="C15" s="15" t="s">
         <v>69</v>
@@ -14606,284 +14630,248 @@
         <v/>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45723</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45723</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f t="shared" ref="K15:Z22" si="9">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D15), $E15, $D15),
-        _xlpm.task_level, IF(ISBLANK($B15),0,LEN($B15)-LEN(SUBSTITUTE($B15,".",""))+1),
-        _xlpm.task_ongoing, AND(K$4&gt;=_xlfn.ISOWEEKNUM($I15), K$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I15)),K$4&gt;_xlfn.ISOWEEKNUM($I15+_xlpm.days_expected), K$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA15" s="10" t="str">
-        <f t="shared" ref="AA15:AK22" si="10">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D15), $E15, $D15),
-        _xlpm.task_level, IF(ISBLANK($B15),0,LEN($B15)-LEN(SUBSTITUTE($B15,".",""))+1),
-        _xlpm.task_ongoing, AND(AA$4&gt;=_xlfn.ISOWEEKNUM($I15), AA$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I15)),AA$4&gt;_xlfn.ISOWEEKNUM($I15+_xlpm.days_expected), AA$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK15" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL15" s="10" t="str">
-        <f t="shared" ref="AL15:BA22" si="11">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D15), $E15, $D15),
-        _xlpm.task_level, IF(ISBLANK($B15),0,LEN($B15)-LEN(SUBSTITUTE($B15,".",""))+1),
-        _xlpm.task_ongoing, AND(AL$4&gt;=_xlfn.ISOWEEKNUM($I15), AL$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I15)),AL$4&gt;_xlfn.ISOWEEKNUM($I15+_xlpm.days_expected), AL$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA15" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB15" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC15" s="10" t="str">
-        <f t="shared" ref="BC15:BP22" si="12">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D15), $E15, $D15),
-        _xlpm.task_level, IF(ISBLANK($B15),0,LEN($B15)-LEN(SUBSTITUTE($B15,".",""))+1),
-        _xlpm.task_ongoing, AND(BC$4&gt;=_xlfn.ISOWEEKNUM($I15), BC$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I15)),BC$4&gt;_xlfn.ISOWEEKNUM($I15+_xlpm.days_expected), BC$4&lt;=_xlfn.ISOWEEKNUM($J15)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="12">
         <v>3</v>
       </c>
@@ -14903,257 +14891,248 @@
         <v>-0.5</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45723</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45730</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f t="shared" ref="K16:AP16" si="13">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D16), $E16, $D16),
-        _xlpm.task_level, IF(ISBLANK($B16),0,LEN($B16)-LEN(SUBSTITUTE($B16,".",""))+1),
-        _xlpm.task_ongoing, AND(K$4&gt;=_xlfn.ISOWEEKNUM($I16), K$4&lt;=_xlfn.ISOWEEKNUM($J16)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I16)),K$4&gt;_xlfn.ISOWEEKNUM($I16+_xlpm.days_expected), K$4&lt;=_xlfn.ISOWEEKNUM($J16)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP16" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA16" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB16" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="12">
         <v>4</v>
       </c>
@@ -15171,248 +15150,248 @@
         <v/>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45730</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45758</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="9"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="V17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK17" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB17" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="12">
         <v>5</v>
       </c>
@@ -15430,248 +15409,248 @@
         <v/>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45758</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45806</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA18" s="10">
-        <f t="shared" si="10"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AB18" s="10">
-        <f t="shared" si="10"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AC18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK18" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB18" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="12">
         <v>6</v>
       </c>
@@ -15689,243 +15668,243 @@
         <v/>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45806</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45824</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AD19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AE19" s="10">
-        <f t="shared" si="10"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AF19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK19" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB19" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BP19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15945,257 +15924,243 @@
         <v/>
       </c>
       <c r="I20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45824</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45825</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f t="shared" ref="K20:AP20" si="14">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D20), $E20, $D20),
-        _xlpm.task_level, IF(ISBLANK($B20),0,LEN($B20)-LEN(SUBSTITUTE($B20,".",""))+1),
-        _xlpm.task_ongoing, AND(K$4&gt;=_xlfn.ISOWEEKNUM($I20), K$4&lt;=_xlfn.ISOWEEKNUM($J20)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I20)),K$4&gt;_xlfn.ISOWEEKNUM($I20+_xlpm.days_expected), K$4&lt;=_xlfn.ISOWEEKNUM($J20)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP20" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB20" s="10" t="str">
-        <f t="shared" ref="BB20:BO20" si="15">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D20), $E20, $D20),
-        _xlpm.task_level, IF(ISBLANK($B20),0,LEN($B20)-LEN(SUBSTITUTE($B20,".",""))+1),
-        _xlpm.task_ongoing, AND(BB$4&gt;=_xlfn.ISOWEEKNUM($I20), BB$4&lt;=_xlfn.ISOWEEKNUM($J20)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I20)),BB$4&gt;_xlfn.ISOWEEKNUM($I20+_xlpm.days_expected), BB$4&lt;=_xlfn.ISOWEEKNUM($J20)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO20" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BP20" s="10" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16215,248 +16180,243 @@
         <v/>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45825</v>
       </c>
       <c r="J21" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45827</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK21" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB21" s="10" t="str">
-        <f t="shared" ref="BB21:BB22" si="16">_xlfn.LET(
-        _xlpm.days_expected, IF(ISBLANK($D21), $E21, $D21),
-        _xlpm.task_level, IF(ISBLANK($B21),0,LEN($B21)-LEN(SUBSTITUTE($B21,".",""))+1),
-        _xlpm.task_ongoing, AND(BB$4&gt;=_xlfn.ISOWEEKNUM($I21), BB$4&lt;=_xlfn.ISOWEEKNUM($J21)),
-        _xlpm.task_ongoing_and_overdue, AND(NOT(ISBLANK($I21)),BB$4&gt;_xlfn.ISOWEEKNUM($I21+_xlpm.days_expected), BB$4&lt;=_xlfn.ISOWEEKNUM($J21)),
-        IF(OR(_xlpm.task_ongoing_and_overdue,AND(_xlpm.task_ongoing,_xlpm.days_expected=0,NOT(_xlpm.task_level=0))),
-              -1,
-           IF(_xlpm.task_ongoing,
-              _xlpm.task_level,
-           "")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BP21" s="10" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -16476,254 +16436,258 @@
         <v/>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>45827</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>45832</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="R22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="T22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="U22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="V22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="W22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF22" s="10">
-        <f t="shared" si="10"/>
-        <v>-1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AG22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK22" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AO22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AP22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AQ22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB22" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BD22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BE22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BF22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BG22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BH22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BI22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BJ22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BK22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BL22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BM22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BN22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="BO22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BP22" s="10" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A19"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:BP5"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:A19"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B7:J22">
@@ -16863,7 +16827,7 @@
       <formula>AND(NOT(ISBLANK(K6)), K6=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:BP19 K20:BO22">
+  <conditionalFormatting sqref="K7:BP22">
     <cfRule type="expression" dxfId="12" priority="42">
       <formula>K7=3</formula>
     </cfRule>
@@ -16889,23 +16853,23 @@
       <formula>K7=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BP19 K20:BO22 K23:AX1048444 K1048479:AX1048576">
+  <conditionalFormatting sqref="K23:AX1048444 K1048479:AX1048576">
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>AND(NOT(ISBLANK(K12)), K12=0)</formula>
+      <formula>AND(NOT(ISBLANK(K23)), K23=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:BP19 AY20:BO22 K20:AX1048444 K1048479:AX1048576">
+  <conditionalFormatting sqref="K23:AX1048444 K1048479:AX1048576">
     <cfRule type="expression" dxfId="3" priority="16">
-      <formula>K12=-1</formula>
+      <formula>K23=-1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="15">
-      <formula>K12=3</formula>
+      <formula>K23=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>K12=2</formula>
+      <formula>K23=2</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>K12=1</formula>
+      <formula>K23=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
